--- a/Data/Transitions/19131922Translation.xlsx
+++ b/Data/Transitions/19131922Translation.xlsx
@@ -127,7 +127,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.4741146168705731}</t>
+    <t>{834.0: 0.47414514778800954}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -169,7 +169,7 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286}</t>
+    <t>{764.0: 0.1490527567751253}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.39748493443127403}</t>
+    <t>{86.0: 0.39561049492763845}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -247,10 +247,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.37660330706227785, 86.0: 0.167627732332037}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008141609952717104}</t>
+    <t>{543.0: 0.37660330706227785, 86.0: 0.16763897270837524}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008141467939881864}</t>
   </si>
   <si>
     <t>{109.0: 1.0}</t>
@@ -268,10 +268,10 @@
     <t>{141.0: 0.7470256731371321}</t>
   </si>
   <si>
-    <t>{142.0: 0.731822893528802}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9569793200618738}</t>
+    <t>{142.0: 0.7317831753554502}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9569578564997833}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -280,7 +280,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 1.0, 764.0: 0.02364448224537529}</t>
+    <t>{147.0: 1.0, 764.0: 0.023617364709880215}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -307,7 +307,7 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922}</t>
+    <t>{165.0: 0.9614104302798668}</t>
   </si>
   <si>
     <t>{166.0: 1.0}</t>
@@ -334,7 +334,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 1.0, 502.0: 0.0327613104524181}</t>
+    <t>{174.0: 1.0, 502.0: 0.033041958041958044}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -379,7 +379,7 @@
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 940.0: 0.4877637130801688}</t>
+    <t>{206.0: 0.8527388535031847, 940.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -472,13 +472,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.7174180832717418}</t>
+    <t>{246.0: 0.7176267848350566}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -490,7 +493,7 @@
     <t>{249.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
   </si>
   <si>
     <t>{251.0: 1.0}</t>
@@ -559,7 +562,7 @@
     <t>{686.0: 0.39664942103966494}</t>
   </si>
   <si>
-    <t>{276.0: 0.6655472862588492}</t>
+    <t>{276.0: 0.6650608980185421}</t>
   </si>
   <si>
     <t>{277.0: 0.7255767301905717}</t>
@@ -586,7 +589,7 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.15746955604131482}</t>
+    <t>{909.0: 0.1599143866049324}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -622,7 +625,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.7768290641218818}</t>
+    <t>{298.0: 0.7768166089965398}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -646,7 +649,7 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.26817710647119797, 909.0: 0.40590425741616165}</t>
+    <t>{142.0: 0.26821682464454977, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -685,9 +688,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -697,7 +697,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -709,7 +709,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9902515215166694}</t>
+    <t>{404.0: 0.9902331102957047}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -784,7 +784,7 @@
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
+    <t>{433.0: 0.9916727009413469}</t>
   </si>
   <si>
     <t>{434.0: 1.0}</t>
@@ -847,7 +847,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.6817752596789424, 837.0: 0.009122201354230282}</t>
+    <t>{486.0: 0.6817752596789424, 837.0: 0.00936130623498098}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -868,7 +868,7 @@
     <t>{492.0: 1.0}</t>
   </si>
   <si>
-    <t>{493.0: 1.0, 108.0: 0.008782794730323161, 144.0: 7.213967696375486e-05}</t>
+    <t>{493.0: 1.0, 108.0: 0.008777852802160702, 144.0: 7.209746813246882e-05}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
@@ -880,7 +880,7 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.967200526546731}</t>
+    <t>{497.0: 0.9670759235809062}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -895,7 +895,7 @@
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9672386895475819}</t>
+    <t>{502.0: 0.9669580419580419}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -934,7 +934,7 @@
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.8551437537104571, 837.0: 0.03639104034620442}</t>
+    <t>{604.0: 0.8534475447375116, 837.0: 0.03727082234591006}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -1006,10 +1006,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.8768705547652916}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715}</t>
+    <t>{580.0: 0.8765544780376497}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1048,7 +1048,7 @@
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1057,7 +1057,7 @@
     <t>{598.0: 1.0}</t>
   </si>
   <si>
-    <t>{599.0: 0.9974362261248558}</t>
+    <t>{599.0: 0.9973621735689792}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1072,7 +1072,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1111,7 +1111,7 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.28258191672825816}</t>
+    <t>{246.0: 0.2823732151649434}</t>
   </si>
   <si>
     <t>{619.0: 1.0}</t>
@@ -1180,7 +1180,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1213,7 +1213,7 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.434887333236689, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
+    <t>{86.0: 0.4367505323639863, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1222,7 +1222,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1255,7 +1255,7 @@
     <t>{730.0: 1.0}</t>
   </si>
   <si>
-    <t>{731.0: 0.8584500055120714}</t>
+    <t>{731.0: 0.8836851164054715}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
@@ -1285,7 +1285,7 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 1.0, 90.0: 0.03364256175254275, 789.0: 0.001348799568384138}</t>
+    <t>{741.0: 1.0, 90.0: 0.03364256175254275, 789.0: 0.0013518385003604902}</t>
   </si>
   <si>
     <t>{758.0: 0.11983160427003459}</t>
@@ -1312,7 +1312,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.1231294452347084}</t>
+    <t>{580.0: 0.12344552196235026}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1417,7 +1417,7 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9986512004316158}</t>
+    <t>{789.0: 0.9986481614996395}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1429,7 +1429,7 @@
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
+    <t>{834.0: 0.5258548522119905}</t>
   </si>
   <si>
     <t>{835.0: 1.0}</t>
@@ -1438,7 +1438,7 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1552,7 +1552,7 @@
     <t>{896.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.9829448214812629}</t>
+    <t>{897.0: 0.9831299982487888}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1561,10 +1561,10 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.0925121962135792, 404.0: 0.00974847848333064}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.43662618654252366}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.0925121962135792, 404.0: 0.009766889704295272}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.43416282576980525}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1591,7 +1591,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182}</t>
+    <t>{298.0: 0.2231833910034602}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1645,13 +1645,13 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{910.0: 0.1834781652183478, 497.0: 0.03279947345326898, 731.0: 0.14154999448792857}</t>
+    <t>{910.0: 0.1834781652183478, 497.0: 0.03292407641909376, 731.0: 0.11631488359452849}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.1472611464968153}</t>
+    <t>{940.0: 0.49782797567332754, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1696,7 +1696,7 @@
     <t>{989.0: 1.0}</t>
   </si>
   <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -1738,7 +1738,7 @@
     <t>{543.0: 0.6694870438921205, 86.0: 0.33051295610787945}</t>
   </si>
   <si>
-    <t>{108.0: 0.9879188511511284, 144.0: 0.012081148848871666}</t>
+    <t>{108.0: 0.9879188511511283, 144.0: 0.012081148848871666}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1753,7 +1753,7 @@
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9583988028432472, 764.0: 0.04160119715675272}</t>
+    <t>{147.0: 0.9583988028432471, 764.0: 0.041601197156752714}</t>
   </si>
   <si>
     <t>{165.0: 1.0}</t>
@@ -1786,7 +1786,7 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{292.0: 0.7970762269404803, 139.0: 0.20292377305951967}</t>
+    <t>{292.0: 0.7970762269404804, 139.0: 0.20292377305951967}</t>
   </si>
   <si>
     <t>{298.0: 1.0}</t>
@@ -1795,7 +1795,7 @@
     <t>{142.0: 0.2893693984406716, 909.0: 0.7106306015593284}</t>
   </si>
   <si>
-    <t>{309.0: 0.9590241591662718, 204.0: 0.04097584083372809}</t>
+    <t>{309.0: 0.9590241591662719, 204.0: 0.04097584083372809}</t>
   </si>
   <si>
     <t>{400.0: 0.968119139547711, 897.0: 0.03188086045228902}</t>
@@ -1825,7 +1825,7 @@
     <t>{933.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.8182233178124716, 837.0: 0.18177668218752852}</t>
+    <t>{604.0: 0.8183062602664718, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -1843,7 +1843,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.762009502084897, 837.0: 0.169288207838767, 922.0: 0.06870229007633588}</t>
+    <t>{604.0: 0.7626932134522454, 837.0: 0.1693456214992105, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -1882,7 +1882,7 @@
     <t>{741.0: 0.9011746559356317, 90.0: 0.09434906832578267, 789.0: 0.004476275738585497}</t>
   </si>
   <si>
-    <t>{746.0: 0.9899854627685349, 691.0: 0.01001453723146503}</t>
+    <t>{746.0: 0.9899854627685348, 691.0: 0.01001453723146503}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
@@ -1897,13 +1897,13 @@
     <t>{789.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9689657749414814, 486.0: 0.031034225058518626}</t>
+    <t>{837.0: 0.9689657749414812, 486.0: 0.031034225058518626}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.12079340900474374, 930.0: 0.8435134338270449, 404.0: 0.0356931571682114}</t>
+    <t>{782.0: 0.12082666428771943, 930.0: 0.8437456590632297, 404.0: 0.03542767664905069}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1921,7 +1921,7 @@
     <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436214, 731.0: 0.3434073281626103}</t>
   </si>
   <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.4877637130801688}</t>
+    <t>{940.0: 0.4978279756733276, 206.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{990.0: 0.9929775280898876, 599.0: 0.007022471910112359}</t>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3962,29 +3962,29 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>584</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>584</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4006,29 +4006,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>585</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>585</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4248,51 +4248,51 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>586</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>588</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4358,29 +4358,29 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>589</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>191</v>
+        <v>589</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4424,51 +4424,51 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>590</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>590</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>571</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>571</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4490,29 +4490,29 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>591</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>591</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4578,29 +4578,29 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>592</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>211</v>
+        <v>592</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4611,29 +4611,29 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>593</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>593</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
